--- a/V701/vXXX/V701.xlsx
+++ b/V701/vXXX/V701.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32aa2256df3a53d8/Uni/Grundpraktikum 2/Berichte/Praktikum-SS/V701/vXXX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{876AC1AF-23AF-4463-8A42-686A773FF59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6512ACF6-C8BF-4017-9B6F-1D621F9DE1DB}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{876AC1AF-23AF-4463-8A42-686A773FF59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E92C8A-ADB6-4916-9A6C-579DE00C1BDC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8711F017-A5C1-44CF-8819-1EDB943F8212}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8711F017-A5C1-44CF-8819-1EDB943F8212}"/>
   </bookViews>
   <sheets>
     <sheet name="Messung 1;2,3cm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Channel</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Druck/mBar</t>
+  </si>
+  <si>
+    <t>Messung</t>
   </si>
 </sst>
 </file>
@@ -88,6 +91,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062091F3-24F9-4682-95A2-901C6702625A}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -868,287 +875,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825B6E57-E966-466D-807B-4828A282839E}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4347</v>
+      <c r="A1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4536</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4329</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4261</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4127</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4366</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4459</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4342</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4188</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4532</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4445</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3971</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4270</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4065</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3985</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4434</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4039</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4085</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4176</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4405</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4046</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4272</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4300</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4111</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4284</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4174</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4103</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4333</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4187</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4342</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4288</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>4350</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4312</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4151</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4297</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4323</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4179</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4294</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4019</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4346</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4019</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4388</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4167</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4159</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4389</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4232</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4294</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4263</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3956</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4229</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>4087</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4124</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4040</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4065</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4026</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
@@ -1158,221 +1165,226 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4195</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4433</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>4016</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>4271</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>4056</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>4371</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4090</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>4250</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4186</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>4125</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>4382</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4073</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>4224</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>4980</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4279</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>4082</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4023</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>4302</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>4422</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>4305</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>4316</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>3963</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>4212</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>4136</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>4438</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>4342</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>3976</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>4027</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>4329</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>4195</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>4261</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>4120</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>4250</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>4041</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>4245</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>4165</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>4259</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>4361</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>4257</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>4258</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>4190</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>4184</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>4146</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>4309</v>
       </c>
     </row>
